--- a/Results/10_mazes/10_maze_results.xlsx
+++ b/Results/10_mazes/10_maze_results.xlsx
@@ -57,7 +57,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -277,10 +277,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0286151"/>
-          <c:y val="0.117158"/>
-          <c:w val="0.961552"/>
-          <c:h val="0.819679"/>
+          <c:x val="0.0300732"/>
+          <c:y val="0.0471807"/>
+          <c:w val="0.963667"/>
+          <c:h val="0.89509"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1341,6 +1341,35 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>No of Ghosts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1392,6 +1421,35 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica Neue"/>
+                  </a:rPr>
+                  <a:t>Survivability </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="1"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1420,8 +1478,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2.5"/>
-        <c:minorUnit val="1.25"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1438,10 +1496,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0437147"/>
+          <c:x val="0.0550532"/>
           <c:y val="0"/>
-          <c:w val="0.913896"/>
-          <c:h val="0.0620065"/>
+          <c:w val="0.903061"/>
+          <c:h val="0.0423749"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1458,7 +1516,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1485,16 +1543,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>35306</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457657</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>22606</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2561</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>612402</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>137938</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1503,10 +1561,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3858006" y="-1"/>
-          <a:ext cx="11417301" cy="4432958"/>
-          <a:chOff x="-326706" y="-471220"/>
-          <a:chExt cx="11417300" cy="4432956"/>
+          <a:off x="3645357" y="-1"/>
+          <a:ext cx="17934746" cy="10424940"/>
+          <a:chOff x="-539355" y="-471220"/>
+          <a:chExt cx="17934745" cy="10424938"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame>
@@ -1515,8 +1573,8 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="-326707" y="-471221"/>
-          <a:ext cx="11417301" cy="4022101"/>
+          <a:off x="-539356" y="-471221"/>
+          <a:ext cx="17934746" cy="9987571"/>
         </xdr:xfrm>
         <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1531,8 +1589,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-19050" y="3630904"/>
-            <a:ext cx="11016426" cy="330832"/>
+            <a:off x="-19050" y="9594523"/>
+            <a:ext cx="17321222" cy="359195"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -1572,7 +1630,7 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:defRPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1584,7 +1642,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none">
+              <a:rPr b="1" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1594,7 +1652,7 @@
                 <a:cs typeface="+mn-cs"/>
                 <a:sym typeface="Helvetica Neue"/>
               </a:rPr>
-              <a:t>No of Ghosts</a:t>
+              <a:t>Agent Survivability in 10 mazes</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>

--- a/Results/10_mazes/10_maze_results.xlsx
+++ b/Results/10_mazes/10_maze_results.xlsx
@@ -357,9 +357,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 1 - 10_maze_results'!$A$3:$A$34</c:f>
+              <c:f>'Sheet 1 - 10_maze_results'!$A$3:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -455,6 +455,90 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>296</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -636,9 +720,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 1 - 10_maze_results'!$A$3:$A$34</c:f>
+              <c:f>'Sheet 1 - 10_maze_results'!$A$3:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -734,6 +818,90 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>296</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -849,11 +1017,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1 - 10_maze_results'!$D$2</c:f>
+              <c:f>'Sheet 1 - 10_maze_results'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Agent 3</c:v>
+                  <c:v>Agent 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -915,9 +1083,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 1 - 10_maze_results'!$A$3:$A$34</c:f>
+              <c:f>'Sheet 1 - 10_maze_results'!$A$3:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1013,38 +1181,194 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>296</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1 - 10_maze_results'!$D$3:$D$34</c:f>
+              <c:f>'Sheet 1 - 10_maze_results'!$E$3:$E$34</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>10.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2.000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
+                  <c:v>6.000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5.000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="13">
+                  <c:v>7.000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2.000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.000000</c:v>
+                <c:pt idx="17">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,11 +1380,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1 - 10_maze_results'!$E$2</c:f>
+              <c:f>'Sheet 1 - 10_maze_results'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Agent 4</c:v>
+                  <c:v>Agent 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1122,9 +1446,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sheet 1 - 10_maze_results'!$A$3:$A$34</c:f>
+              <c:f>'Sheet 1 - 10_maze_results'!$A$3:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1220,110 +1544,149 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>296</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1 - 10_maze_results'!$E$3:$E$34</c:f>
+              <c:f>'Sheet 1 - 10_maze_results'!$D$3:$D$62</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.000000</c:v>
+                  <c:v>2.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.000000</c:v>
+                  <c:v>1.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.000000</c:v>
+                  <c:v>1.000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2784,7 +3147,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="9">
         <v>10</v>
@@ -2801,7 +3164,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" s="9">
         <v>9</v>
@@ -2818,7 +3181,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="9">
         <v>7</v>
@@ -2835,7 +3198,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="9">
         <v>6</v>
@@ -2852,7 +3215,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="9">
         <v>8</v>
@@ -2886,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="9">
         <v>6</v>
@@ -2902,7 +3265,9 @@
       <c r="C11" s="9">
         <v>4</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
       <c r="E11" s="9">
         <v>6</v>
       </c>
@@ -2917,7 +3282,9 @@
       <c r="C12" s="9">
         <v>6</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
       <c r="E12" s="9">
         <v>4</v>
       </c>
@@ -2932,7 +3299,9 @@
       <c r="C13" s="9">
         <v>6</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
       <c r="E13" s="9">
         <v>2</v>
       </c>
@@ -2947,7 +3316,9 @@
       <c r="C14" s="9">
         <v>2</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
       <c r="E14" s="9">
         <v>6</v>
       </c>
@@ -2962,7 +3333,9 @@
       <c r="C15" s="9">
         <v>0</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
       <c r="E15" s="9">
         <v>5</v>
       </c>
@@ -2977,7 +3350,9 @@
       <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
       <c r="E16" s="9">
         <v>7</v>
       </c>
@@ -2992,7 +3367,9 @@
       <c r="C17" s="9">
         <v>3</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
       <c r="E17" s="9">
         <v>3</v>
       </c>
@@ -3007,7 +3384,9 @@
       <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
@@ -3022,7 +3401,9 @@
       <c r="C19" s="9">
         <v>0</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
       <c r="E19" s="9">
         <v>2</v>
       </c>
